--- a/project management/orders/4-4-14 Order.xlsx
+++ b/project management/orders/4-4-14 Order.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxs6328\Documents\GitHub\P14345\project management\orders\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -223,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,19 +443,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -477,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -498,7 +496,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -519,7 +517,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -536,11 +534,11 @@
         <v>0.06</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G7:G19" si="0">F7*E7</f>
+        <f t="shared" ref="G7:G13" si="0">F7*E7</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -561,7 +559,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -582,7 +580,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -603,7 +601,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -624,7 +622,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -645,7 +643,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -666,16 +664,16 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
@@ -684,14 +682,19 @@
         <v>29.160000000000004</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7">
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7">
       <c r="G19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>